--- a/results/analyse_basemodel.xlsx
+++ b/results/analyse_basemodel.xlsx
@@ -471,16 +471,16 @@
         <v>10000</v>
       </c>
       <c r="I2">
-        <v>2.085998296737671</v>
+        <v>1.873199462890625</v>
       </c>
       <c r="J2">
-        <v>2.757097721099853</v>
+        <v>2.565371990203857</v>
       </c>
       <c r="K2">
-        <v>1.75199282169342</v>
+        <v>1.505053162574768</v>
       </c>
       <c r="L2">
-        <v>2.187654972076416</v>
+        <v>1.991048455238343</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -500,16 +500,16 @@
         <v>10000</v>
       </c>
       <c r="I3">
-        <v>2.498413324356079</v>
+        <v>2.830324649810791</v>
       </c>
       <c r="J3">
-        <v>2.785741329193115</v>
+        <v>2.929738044738769</v>
       </c>
       <c r="K3">
-        <v>2.164206743240356</v>
+        <v>2.489146947860718</v>
       </c>
       <c r="L3">
-        <v>2.419193744659424</v>
+        <v>2.60106897354126</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -529,16 +529,16 @@
         <v>10000</v>
       </c>
       <c r="I4">
-        <v>2.48423433303833</v>
+        <v>2.574750185012817</v>
       </c>
       <c r="J4">
-        <v>2.621157884597778</v>
+        <v>2.671479463577271</v>
       </c>
       <c r="K4">
-        <v>2.145044088363647</v>
+        <v>2.225984573364258</v>
       </c>
       <c r="L4">
-        <v>2.188336849212646</v>
+        <v>2.245590209960937</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -558,16 +558,16 @@
         <v>10000</v>
       </c>
       <c r="I5">
-        <v>2.336625576019287</v>
+        <v>2.119325637817383</v>
       </c>
       <c r="J5">
-        <v>2.684655666351318</v>
+        <v>2.462208986282349</v>
       </c>
       <c r="K5">
-        <v>1.91092300415039</v>
+        <v>1.69720721244812</v>
       </c>
       <c r="L5">
-        <v>2.146561622619629</v>
+        <v>1.935331106185913</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -587,16 +587,16 @@
         <v>10000</v>
       </c>
       <c r="I6">
-        <v>1.493166565895081</v>
+        <v>2.21870231628418</v>
       </c>
       <c r="J6">
-        <v>1.69588053226471</v>
+        <v>2.355138540267944</v>
       </c>
       <c r="K6">
-        <v>1.236182928085327</v>
+        <v>1.893381476402283</v>
       </c>
       <c r="L6">
-        <v>1.358394384384155</v>
+        <v>1.981481194496155</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -616,16 +616,16 @@
         <v>10000</v>
       </c>
       <c r="I7">
-        <v>2.071724414825439</v>
+        <v>2.800756454467773</v>
       </c>
       <c r="J7">
-        <v>2.203020572662353</v>
+        <v>2.731986284255981</v>
       </c>
       <c r="K7">
-        <v>1.757025957107544</v>
+        <v>2.3655104637146</v>
       </c>
       <c r="L7">
-        <v>1.847064018249512</v>
+        <v>2.306272029876709</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -645,16 +645,16 @@
         <v>10000</v>
       </c>
       <c r="I8">
-        <v>2.299245834350586</v>
+        <v>2.635574817657471</v>
       </c>
       <c r="J8">
-        <v>2.295403480529785</v>
+        <v>2.663843631744385</v>
       </c>
       <c r="K8">
-        <v>1.914068818092346</v>
+        <v>2.270545482635498</v>
       </c>
       <c r="L8">
-        <v>1.920352220535278</v>
+        <v>2.28073263168335</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -674,16 +674,16 @@
         <v>10000</v>
       </c>
       <c r="I9">
-        <v>2.538981914520264</v>
+        <v>1.90117335319519</v>
       </c>
       <c r="J9">
-        <v>2.686597347259521</v>
+        <v>2.122667789459229</v>
       </c>
       <c r="K9">
-        <v>2.14897894859314</v>
+        <v>1.526964902877808</v>
       </c>
       <c r="L9">
-        <v>2.239515066146851</v>
+        <v>1.680685043334961</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -703,16 +703,16 @@
         <v>10000</v>
       </c>
       <c r="I10">
-        <v>3.110407590866089</v>
+        <v>1.80009913444519</v>
       </c>
       <c r="J10">
-        <v>3.032991647720337</v>
+        <v>1.887951612472534</v>
       </c>
       <c r="K10">
-        <v>2.677411556243896</v>
+        <v>1.474754571914673</v>
       </c>
       <c r="L10">
-        <v>2.586207389831543</v>
+        <v>1.530430555343628</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -732,16 +732,16 @@
         <v>10000</v>
       </c>
       <c r="I11">
-        <v>2.755974531173706</v>
+        <v>2.279353380203247</v>
       </c>
       <c r="J11">
-        <v>2.613034248352051</v>
+        <v>2.280247926712036</v>
       </c>
       <c r="K11">
-        <v>2.379529476165771</v>
+        <v>1.947005033493042</v>
       </c>
       <c r="L11">
-        <v>2.273317575454712</v>
+        <v>1.959811210632324</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -761,16 +761,16 @@
         <v>10000</v>
       </c>
       <c r="I12">
-        <v>2.424976825714112</v>
+        <v>2.364413022994995</v>
       </c>
       <c r="J12">
-        <v>2.337052822113037</v>
+        <v>2.327326059341431</v>
       </c>
       <c r="K12">
-        <v>2.026556491851806</v>
+        <v>1.983855843544006</v>
       </c>
       <c r="L12">
-        <v>1.956564903259277</v>
+        <v>1.955371141433716</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -790,16 +790,16 @@
         <v>10000</v>
       </c>
       <c r="I13">
-        <v>2.666207790374756</v>
+        <v>2.026294708251953</v>
       </c>
       <c r="J13">
-        <v>2.682916164398193</v>
+        <v>2.006722927093506</v>
       </c>
       <c r="K13">
-        <v>2.222067594528198</v>
+        <v>1.714239120483398</v>
       </c>
       <c r="L13">
-        <v>2.224931240081787</v>
+        <v>1.681225419044495</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -819,16 +819,16 @@
         <v>10000</v>
       </c>
       <c r="I14">
-        <v>2.670177936553955</v>
+        <v>2.725618600845337</v>
       </c>
       <c r="J14">
-        <v>2.61437201499939</v>
+        <v>2.646488666534424</v>
       </c>
       <c r="K14">
-        <v>2.249917030334473</v>
+        <v>2.337383270263672</v>
       </c>
       <c r="L14">
-        <v>2.202512979507446</v>
+        <v>2.27660608291626</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -848,16 +848,16 @@
         <v>10000</v>
       </c>
       <c r="I15">
-        <v>3.235953569412231</v>
+        <v>1.892276048660278</v>
       </c>
       <c r="J15">
-        <v>3.023474931716919</v>
+        <v>1.836515426635742</v>
       </c>
       <c r="K15">
-        <v>2.768879652023315</v>
+        <v>1.569316864013672</v>
       </c>
       <c r="L15">
-        <v>2.601116180419922</v>
+        <v>1.540357351303101</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -877,16 +877,16 @@
         <v>10000</v>
       </c>
       <c r="I16">
-        <v>2.4735107421875</v>
+        <v>3.153749942779541</v>
       </c>
       <c r="J16">
-        <v>2.376791715621948</v>
+        <v>3.026017665863037</v>
       </c>
       <c r="K16">
-        <v>2.081980228424072</v>
+        <v>2.757720232009888</v>
       </c>
       <c r="L16">
-        <v>2.004489421844482</v>
+        <v>2.668308734893799</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -906,16 +906,16 @@
         <v>10000</v>
       </c>
       <c r="I17">
-        <v>2.479722738265991</v>
+        <v>2.70206880569458</v>
       </c>
       <c r="J17">
-        <v>2.420486927032471</v>
+        <v>2.64407730102539</v>
       </c>
       <c r="K17">
-        <v>2.079411745071411</v>
+        <v>2.297735691070557</v>
       </c>
       <c r="L17">
-        <v>2.020448923110962</v>
+        <v>2.257085084915161</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -935,16 +935,16 @@
         <v>10000</v>
       </c>
       <c r="I18">
-        <v>3.15362286567688</v>
+        <v>2.028413772583008</v>
       </c>
       <c r="J18">
-        <v>3.022543907165528</v>
+        <v>1.970667600631714</v>
       </c>
       <c r="K18">
-        <v>2.686558485031128</v>
+        <v>1.675830125808716</v>
       </c>
       <c r="L18">
-        <v>2.582889795303345</v>
+        <v>1.628984451293945</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -964,16 +964,16 @@
         <v>10000</v>
       </c>
       <c r="I19">
-        <v>3.191867351531982</v>
+        <v>2.853489398956299</v>
       </c>
       <c r="J19">
-        <v>3.021941184997559</v>
+        <v>2.696059942245483</v>
       </c>
       <c r="K19">
-        <v>2.764605045318604</v>
+        <v>2.456345081329346</v>
       </c>
       <c r="L19">
-        <v>2.639169692993164</v>
+        <v>2.342460870742798</v>
       </c>
     </row>
   </sheetData>
